--- a/Assets/Excel/ItemDataTable.xlsx
+++ b/Assets/Excel/ItemDataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10B Outsourcing\Filab\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF6C17E-A309-4D5D-9484-15EB89D004FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3FDD22-976A-47D2-87F7-615E02CACF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29025" yWindow="1185" windowWidth="21600" windowHeight="11385" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDataTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="198">
   <si>
     <t>UID:key</t>
   </si>
@@ -518,9 +518,6 @@
     <t>IconId</t>
   </si>
   <si>
-    <t>DerciptionId</t>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,9 +602,6 @@
     <t>캐릭터 아이디</t>
   </si>
   <si>
-    <t>아이콘 아이디</t>
-  </si>
-  <si>
     <t>아이템 설명</t>
   </si>
   <si>
@@ -616,6 +610,25 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아틀라스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프라이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackSmithItemAtlas</t>
+  </si>
+  <si>
+    <t>AtlasName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,7 +638,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -684,7 +697,7 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1001,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45ABD2-614E-46B7-9465-64E7A16B2051}">
-  <dimension ref="A1:AC204"/>
+  <dimension ref="A1:AD204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1036,106 +1049,110 @@
     <col min="25" max="25" width="5.875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.25" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.75" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="1"/>
+    <col min="28" max="28" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.25" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.75" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1213,13 +1230,16 @@
         <v>3</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1307,8 +1327,11 @@
       <c r="AC3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1391,13 +1414,16 @@
         <v>162</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>200000000001</v>
       </c>
@@ -1437,8 +1463,14 @@
       <c r="X5" s="1">
         <v>7500</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>6324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>200000000002</v>
       </c>
@@ -1478,8 +1510,14 @@
       <c r="X6" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>6325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>200000000003</v>
       </c>
@@ -1519,8 +1557,14 @@
       <c r="X7" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>6326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>200000000004</v>
       </c>
@@ -1560,8 +1604,14 @@
       <c r="X8" s="1">
         <v>45000</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>6327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>200000000005</v>
       </c>
@@ -1601,8 +1651,14 @@
       <c r="X9" s="1">
         <v>46500</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>200000000006</v>
       </c>
@@ -1642,8 +1698,14 @@
       <c r="X10" s="1">
         <v>50000</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>6329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>200000000007</v>
       </c>
@@ -1683,8 +1745,14 @@
       <c r="X11" s="1">
         <v>48000</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>6330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>200000000008</v>
       </c>
@@ -1724,8 +1792,14 @@
       <c r="X12" s="1">
         <v>75000</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>6331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>200000000009</v>
       </c>
@@ -1765,8 +1839,14 @@
       <c r="X13" s="1">
         <v>65000</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>6332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>200000000010</v>
       </c>
@@ -1806,8 +1886,14 @@
       <c r="X14" s="1">
         <v>100000</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>6333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>200000000011</v>
       </c>
@@ -1844,8 +1930,14 @@
       <c r="X15" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>6334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>200000000012</v>
       </c>
@@ -1882,8 +1974,14 @@
       <c r="X16" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>6335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>200000000013</v>
       </c>
@@ -1920,8 +2018,14 @@
       <c r="X17" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>6336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>200000000014</v>
       </c>
@@ -1958,8 +2062,14 @@
       <c r="X18" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB18" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>6337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>200000000015</v>
       </c>
@@ -1996,8 +2106,14 @@
       <c r="X19" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>6338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>200000000016</v>
       </c>
@@ -2034,8 +2150,14 @@
       <c r="X20" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>6339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>200000000017</v>
       </c>
@@ -2069,8 +2191,14 @@
       <c r="X21" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>200000000018</v>
       </c>
@@ -2104,8 +2232,14 @@
       <c r="X22" s="1">
         <v>7500</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>6341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>200000000019</v>
       </c>
@@ -2139,8 +2273,14 @@
       <c r="X23" s="1">
         <v>8100</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>6342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>200000000020</v>
       </c>
@@ -2174,8 +2314,14 @@
       <c r="X24" s="1">
         <v>3200</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>6343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>200000000021</v>
       </c>
@@ -2209,8 +2355,14 @@
       <c r="X25" s="1">
         <v>5800</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>6344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>200000000022</v>
       </c>
@@ -2244,8 +2396,14 @@
       <c r="X26" s="1">
         <v>8900</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>6345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>200000000023</v>
       </c>
@@ -2279,8 +2437,14 @@
       <c r="X27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>6346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>200000000024</v>
       </c>
@@ -2314,8 +2478,14 @@
       <c r="X28" s="1">
         <v>780</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>6347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>200000000025</v>
       </c>
@@ -2349,8 +2519,14 @@
       <c r="X29" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>6348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>200000000026</v>
       </c>
@@ -2384,8 +2560,14 @@
       <c r="X30" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>6349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>200000000027</v>
       </c>
@@ -2419,8 +2601,14 @@
       <c r="X31" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>200000000028</v>
       </c>
@@ -2454,8 +2642,14 @@
       <c r="X32" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>6351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>200000000029</v>
       </c>
@@ -2489,8 +2683,14 @@
       <c r="X33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>6352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>200000000030</v>
       </c>
@@ -2524,8 +2724,14 @@
       <c r="X34" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>6353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>200000000031</v>
       </c>
@@ -2559,8 +2765,14 @@
       <c r="X35" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>6354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>200000000032</v>
       </c>
@@ -2594,8 +2806,14 @@
       <c r="X36" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>6355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>200000000033</v>
       </c>
@@ -2629,8 +2847,14 @@
       <c r="X37" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB37" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>6356</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>200000000034</v>
       </c>
@@ -2664,8 +2888,14 @@
       <c r="X38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>6357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>200000000035</v>
       </c>
@@ -2699,8 +2929,14 @@
       <c r="X39" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB39" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>6358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>200000000036</v>
       </c>
@@ -2734,8 +2970,14 @@
       <c r="X40" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>6359</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>200000000037</v>
       </c>
@@ -2769,8 +3011,14 @@
       <c r="X41" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB41" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>200000000038</v>
       </c>
@@ -2804,8 +3052,14 @@
       <c r="X42" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>6361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>200000000039</v>
       </c>
@@ -2839,8 +3093,14 @@
       <c r="X43" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>6362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>200000000040</v>
       </c>
@@ -2874,8 +3134,14 @@
       <c r="X44" s="1">
         <v>450</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB44" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>6363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>200000000041</v>
       </c>
@@ -2909,8 +3175,14 @@
       <c r="X45" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB45" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>6364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>200000000042</v>
       </c>
@@ -2944,8 +3216,14 @@
       <c r="X46" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>6365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>200000000043</v>
       </c>
@@ -2979,8 +3257,14 @@
       <c r="X47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB47" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>6366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>200000000044</v>
       </c>
@@ -3014,8 +3298,14 @@
       <c r="X48" s="1">
         <v>770</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>6367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>200000000045</v>
       </c>
@@ -3049,8 +3339,14 @@
       <c r="X49" s="1">
         <v>280</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>6368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>200000000046</v>
       </c>
@@ -3084,8 +3380,14 @@
       <c r="X50" s="1">
         <v>1800</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>6369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>200000000047</v>
       </c>
@@ -3119,8 +3421,14 @@
       <c r="X51" s="1">
         <v>27000</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB51" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>6370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>200000000048</v>
       </c>
@@ -3154,8 +3462,14 @@
       <c r="X52" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>6371</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>200000000049</v>
       </c>
@@ -3189,8 +3503,14 @@
       <c r="X53" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB53" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>6372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>200000000050</v>
       </c>
@@ -3224,8 +3544,14 @@
       <c r="X54" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB54" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>6373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>200000000051</v>
       </c>
@@ -3259,8 +3585,14 @@
       <c r="X55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB55" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>6374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>200000000052</v>
       </c>
@@ -3294,8 +3626,14 @@
       <c r="X56" s="1">
         <v>450</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB56" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>6375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>200000000053</v>
       </c>
@@ -3329,8 +3667,14 @@
       <c r="X57" s="1">
         <v>48000</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>6376</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>200000000054</v>
       </c>
@@ -3364,8 +3708,14 @@
       <c r="X58" s="1">
         <v>68000</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB58" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>6377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>200000000055</v>
       </c>
@@ -3399,8 +3749,14 @@
       <c r="X59" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB59" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>6378</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>200000000056</v>
       </c>
@@ -3428,8 +3784,14 @@
       <c r="X60" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>6379</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>200000000057</v>
       </c>
@@ -3457,8 +3819,14 @@
       <c r="X61" s="1">
         <v>16000</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>200000000058</v>
       </c>
@@ -3486,8 +3854,14 @@
       <c r="X62" s="1">
         <v>35000</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB62" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>6381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>200000000059</v>
       </c>
@@ -3515,8 +3889,14 @@
       <c r="X63" s="1">
         <v>80000</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>6382</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>200000000060</v>
       </c>
@@ -3550,8 +3930,14 @@
       <c r="X64" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>6383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>200000000061</v>
       </c>
@@ -3585,8 +3971,14 @@
       <c r="X65" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>200000000062</v>
       </c>
@@ -3620,8 +4012,14 @@
       <c r="X66" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>6385</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>200000000063</v>
       </c>
@@ -3655,8 +4053,14 @@
       <c r="X67" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB67" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>6386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>200000000064</v>
       </c>
@@ -3690,8 +4094,14 @@
       <c r="X68" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>6387</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>200000000065</v>
       </c>
@@ -3725,8 +4135,14 @@
       <c r="X69" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>6388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>200000000066</v>
       </c>
@@ -3760,8 +4176,14 @@
       <c r="X70" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB70" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>6389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>200000000067</v>
       </c>
@@ -3795,8 +4217,14 @@
       <c r="X71" s="1">
         <v>450</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB71" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>200000000068</v>
       </c>
@@ -3830,8 +4258,14 @@
       <c r="X72" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB72" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>6391</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>200000000069</v>
       </c>
@@ -3865,8 +4299,14 @@
       <c r="X73" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB73" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>6392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>200000000070</v>
       </c>
@@ -3900,8 +4340,14 @@
       <c r="X74" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>6393</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>200000000071</v>
       </c>
@@ -3935,8 +4381,14 @@
       <c r="X75" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>6394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>200000000072</v>
       </c>
@@ -3970,8 +4422,14 @@
       <c r="X76" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC76" s="1">
+        <v>6395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>200000000073</v>
       </c>
@@ -4005,8 +4463,14 @@
       <c r="X77" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC77" s="1">
+        <v>6396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>200000000074</v>
       </c>
@@ -4040,8 +4504,14 @@
       <c r="X78" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC78" s="1">
+        <v>6397</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>200000000075</v>
       </c>
@@ -4075,8 +4545,14 @@
       <c r="X79" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB79" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC79" s="1">
+        <v>6398</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>200000000076</v>
       </c>
@@ -4110,8 +4586,14 @@
       <c r="X80" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB80" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC80" s="1">
+        <v>6399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>200000000077</v>
       </c>
@@ -4145,8 +4627,14 @@
       <c r="X81" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB81" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC81" s="1">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>200000000078</v>
       </c>
@@ -4180,8 +4668,14 @@
       <c r="X82" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB82" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC82" s="1">
+        <v>6401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>200000000079</v>
       </c>
@@ -4215,8 +4709,14 @@
       <c r="X83" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB83" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC83" s="1">
+        <v>6402</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>200000000080</v>
       </c>
@@ -4250,8 +4750,14 @@
       <c r="X84" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB84" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC84" s="1">
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>200000000081</v>
       </c>
@@ -4285,8 +4791,14 @@
       <c r="X85" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB85" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC85" s="1">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>200000000082</v>
       </c>
@@ -4320,8 +4832,14 @@
       <c r="X86" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB86" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC86" s="1">
+        <v>6405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>200000000083</v>
       </c>
@@ -4355,8 +4873,14 @@
       <c r="X87" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC87" s="1">
+        <v>6406</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>200000000084</v>
       </c>
@@ -4390,8 +4914,14 @@
       <c r="X88" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB88" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC88" s="1">
+        <v>6407</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>200000000085</v>
       </c>
@@ -4425,8 +4955,14 @@
       <c r="X89" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB89" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC89" s="1">
+        <v>6408</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>200000000086</v>
       </c>
@@ -4460,8 +4996,14 @@
       <c r="X90" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB90" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC90" s="1">
+        <v>6409</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>200000000087</v>
       </c>
@@ -4495,8 +5037,14 @@
       <c r="X91" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB91" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC91" s="1">
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>200000000088</v>
       </c>
@@ -4530,8 +5078,14 @@
       <c r="X92" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB92" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC92" s="1">
+        <v>6411</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>200000000089</v>
       </c>
@@ -4565,8 +5119,14 @@
       <c r="X93" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB93" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC93" s="1">
+        <v>6412</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>200000000090</v>
       </c>
@@ -4600,8 +5160,14 @@
       <c r="X94" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB94" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC94" s="1">
+        <v>6413</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>200000000091</v>
       </c>
@@ -4635,8 +5201,14 @@
       <c r="X95" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC95" s="1">
+        <v>6414</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>200000000092</v>
       </c>
@@ -4670,8 +5242,14 @@
       <c r="X96" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB96" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>6415</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>200000000093</v>
       </c>
@@ -4705,8 +5283,14 @@
       <c r="X97" s="1">
         <v>7700</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC97" s="1">
+        <v>6416</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>200000000094</v>
       </c>
@@ -4740,8 +5324,14 @@
       <c r="X98" s="1">
         <v>6400</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC98" s="1">
+        <v>6417</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>200000000095</v>
       </c>
@@ -4775,8 +5365,14 @@
       <c r="X99" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB99" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC99" s="1">
+        <v>6418</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>200000000096</v>
       </c>
@@ -4810,8 +5406,14 @@
       <c r="X100" s="1">
         <v>235</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB100" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC100" s="1">
+        <v>6419</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>200000000097</v>
       </c>
@@ -4845,8 +5447,14 @@
       <c r="X101" s="1">
         <v>285</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB101" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC101" s="1">
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>200000000098</v>
       </c>
@@ -4880,8 +5488,14 @@
       <c r="X102" s="1">
         <v>255</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB102" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC102" s="1">
+        <v>6421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>200000000099</v>
       </c>
@@ -4915,8 +5529,14 @@
       <c r="X103" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB103" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC103" s="1">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>200000000100</v>
       </c>
@@ -4950,8 +5570,14 @@
       <c r="X104" s="1">
         <v>1850</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB104" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC104" s="1">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>200000000101</v>
       </c>
@@ -4985,8 +5611,14 @@
       <c r="X105" s="1">
         <v>5350</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB105" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC105" s="1">
+        <v>6424</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>200000000102</v>
       </c>
@@ -5020,8 +5652,14 @@
       <c r="X106" s="1">
         <v>1400</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB106" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC106" s="1">
+        <v>6425</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>200000000103</v>
       </c>
@@ -5055,8 +5693,14 @@
       <c r="X107" s="1">
         <v>5800</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB107" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>6426</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>200000000104</v>
       </c>
@@ -5090,8 +5734,14 @@
       <c r="X108" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB108" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC108" s="1">
+        <v>6427</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>200000000105</v>
       </c>
@@ -5125,8 +5775,14 @@
       <c r="X109" s="1">
         <v>3200</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB109" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC109" s="1">
+        <v>6428</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>200000000106</v>
       </c>
@@ -5160,8 +5816,14 @@
       <c r="X110" s="1">
         <v>4500</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB110" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC110" s="1">
+        <v>6429</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>200000000107</v>
       </c>
@@ -5195,8 +5857,14 @@
       <c r="X111" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB111" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC111" s="1">
+        <v>6430</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>200000000108</v>
       </c>
@@ -5230,8 +5898,14 @@
       <c r="X112" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB112" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC112" s="1">
+        <v>6431</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>200000000109</v>
       </c>
@@ -5265,8 +5939,14 @@
       <c r="X113" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB113" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC113" s="1">
+        <v>6432</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>200000000110</v>
       </c>
@@ -5300,8 +5980,14 @@
       <c r="X114" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB114" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC114" s="1">
+        <v>6433</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>200000000111</v>
       </c>
@@ -5335,8 +6021,14 @@
       <c r="X115" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB115" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC115" s="1">
+        <v>6434</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>200000000112</v>
       </c>
@@ -5370,8 +6062,14 @@
       <c r="X116" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB116" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC116" s="1">
+        <v>6435</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>200000000113</v>
       </c>
@@ -5405,8 +6103,14 @@
       <c r="X117" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB117" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC117" s="1">
+        <v>6436</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>200000000114</v>
       </c>
@@ -5440,8 +6144,14 @@
       <c r="X118" s="1">
         <v>5995</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB118" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC118" s="1">
+        <v>6437</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>200000000115</v>
       </c>
@@ -5475,8 +6185,14 @@
       <c r="X119" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB119" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC119" s="1">
+        <v>6438</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>200000000116</v>
       </c>
@@ -5510,8 +6226,14 @@
       <c r="X120" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB120" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC120" s="1">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>200000000117</v>
       </c>
@@ -5545,8 +6267,14 @@
       <c r="X121" s="1">
         <v>2900</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB121" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC121" s="1">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>200000000118</v>
       </c>
@@ -5580,8 +6308,14 @@
       <c r="X122" s="1">
         <v>2450</v>
       </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB122" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC122" s="1">
+        <v>6441</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>200000000119</v>
       </c>
@@ -5615,8 +6349,14 @@
       <c r="X123" s="1">
         <v>2950</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB123" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC123" s="1">
+        <v>6442</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>200000000120</v>
       </c>
@@ -5650,8 +6390,14 @@
       <c r="X124" s="1">
         <v>450</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB124" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC124" s="1">
+        <v>6443</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>200000000121</v>
       </c>
@@ -5685,8 +6431,14 @@
       <c r="X125" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB125" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC125" s="1">
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>200000000122</v>
       </c>
@@ -5720,8 +6472,14 @@
       <c r="X126" s="1">
         <v>130000</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB126" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC126" s="1">
+        <v>6445</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>200000000123</v>
       </c>
@@ -5755,8 +6513,14 @@
       <c r="X127" s="1">
         <v>230000</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB127" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC127" s="1">
+        <v>6446</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>200000000124</v>
       </c>
@@ -5790,8 +6554,14 @@
       <c r="X128" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB128" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC128" s="1">
+        <v>6447</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>200000000125</v>
       </c>
@@ -5825,8 +6595,14 @@
       <c r="X129" s="1">
         <v>43000</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB129" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC129" s="1">
+        <v>6448</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>200000000126</v>
       </c>
@@ -5860,8 +6636,14 @@
       <c r="X130" s="1">
         <v>35000</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB130" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC130" s="1">
+        <v>6449</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>200000000127</v>
       </c>
@@ -5895,8 +6677,14 @@
       <c r="X131" s="1">
         <v>36000</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB131" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC131" s="1">
+        <v>6450</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>200000000128</v>
       </c>
@@ -5930,8 +6718,14 @@
       <c r="X132" s="1">
         <v>80000</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB132" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC132" s="1">
+        <v>6451</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>200000000129</v>
       </c>
@@ -5965,8 +6759,14 @@
       <c r="X133" s="1">
         <v>160000</v>
       </c>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB133" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC133" s="1">
+        <v>6452</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>200000000130</v>
       </c>
@@ -6000,8 +6800,14 @@
       <c r="X134" s="1">
         <v>185000</v>
       </c>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB134" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC134" s="1">
+        <v>6453</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>200000000131</v>
       </c>
@@ -6035,8 +6841,14 @@
       <c r="X135" s="1">
         <v>295000</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB135" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC135" s="1">
+        <v>6454</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>200000000132</v>
       </c>
@@ -6070,8 +6882,14 @@
       <c r="X136" s="1">
         <v>220000</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB136" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC136" s="1">
+        <v>6455</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>200000000133</v>
       </c>
@@ -6105,26 +6923,32 @@
       <c r="X137" s="1">
         <v>195000</v>
       </c>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB137" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC137" s="1">
+        <v>6456</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">

--- a/Assets/Excel/ItemDataTable.xlsx
+++ b/Assets/Excel/ItemDataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10B Outsourcing\Filab\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D3C38F-5771-4C36-9B1C-3F54C22CED67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD3E6E7-C2D8-42D6-A8C3-F2A2A5184CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDataTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="187">
   <si>
     <t>UID:key</t>
   </si>
@@ -562,6 +562,60 @@
   <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PiratesItemAtlas</t>
+  </si>
+  <si>
+    <t>1703_a</t>
+  </si>
+  <si>
+    <t>1722_a</t>
+  </si>
+  <si>
+    <t>1724_a</t>
+  </si>
+  <si>
+    <t>1727_a</t>
+  </si>
+  <si>
+    <t>1728_a</t>
+  </si>
+  <si>
+    <t>1729_a</t>
+  </si>
+  <si>
+    <t>1741_a</t>
+  </si>
+  <si>
+    <t>1782_a</t>
+  </si>
+  <si>
+    <t>1787_a</t>
+  </si>
+  <si>
+    <t>1774_a</t>
+  </si>
+  <si>
+    <t>1785_a</t>
+  </si>
+  <si>
+    <t>BuildingAndCraftAtlas</t>
+  </si>
+  <si>
+    <t>SteampunkLootAtlas</t>
+  </si>
+  <si>
+    <t>FishingItemAtlas</t>
+  </si>
+  <si>
+    <t>AlchemyHerbsAtlas</t>
+  </si>
+  <si>
+    <t>HuntingTrophyAtlas</t>
+  </si>
+  <si>
+    <t>TrailoringItemAtlas</t>
   </si>
 </sst>
 </file>
@@ -958,7 +1012,7 @@
   <dimension ref="A1:AF171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -972,7 +1026,7 @@
     <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="18" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="29" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.75" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13.25" style="1" customWidth="1"/>
     <col min="32" max="32" width="12.75" style="1" customWidth="1"/>
     <col min="33" max="16384" width="9" style="1"/>
@@ -1429,10 +1483,10 @@
         <v>1</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>6324</v>
+        <v>169</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
@@ -1494,10 +1548,10 @@
         <v>1</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>6325</v>
+        <v>169</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
@@ -1559,10 +1613,10 @@
         <v>1</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>6326</v>
+        <v>169</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
@@ -1624,10 +1678,10 @@
         <v>1</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>6327</v>
+        <v>169</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
@@ -1689,10 +1743,10 @@
         <v>1</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>6328</v>
+        <v>169</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
@@ -1754,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>6329</v>
+        <v>169</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
@@ -1819,10 +1873,10 @@
         <v>1</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>6330</v>
+        <v>169</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
@@ -1884,10 +1938,10 @@
         <v>1</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>6331</v>
+        <v>169</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
@@ -1949,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>6332</v>
+        <v>169</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
@@ -2014,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>6333</v>
+        <v>169</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
@@ -2079,10 +2133,10 @@
         <v>1</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>6334</v>
+        <v>169</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
@@ -2144,10 +2198,10 @@
         <v>1</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="AE16" s="1">
-        <v>6335</v>
+        <v>945</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
@@ -2209,10 +2263,10 @@
         <v>1</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="AE17" s="1">
-        <v>6336</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
@@ -2274,10 +2328,10 @@
         <v>1</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="AE18" s="1">
-        <v>6337</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
@@ -2339,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="AE19" s="1">
-        <v>6338</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
@@ -2404,10 +2458,10 @@
         <v>1</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="AE20" s="1">
-        <v>6339</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
@@ -2469,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="AE21" s="1">
-        <v>6340</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
@@ -2534,10 +2588,10 @@
         <v>1</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="AE22" s="1">
-        <v>6341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
@@ -2599,10 +2653,10 @@
         <v>1</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="AE23" s="1">
-        <v>6342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
@@ -2664,10 +2718,10 @@
         <v>1</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="AE24" s="1">
-        <v>6343</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
@@ -2729,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="AE25" s="1">
-        <v>6344</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
@@ -2794,10 +2848,10 @@
         <v>1</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="AE26" s="1">
-        <v>6345</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
@@ -2859,10 +2913,10 @@
         <v>1</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="AE27" s="1">
-        <v>6346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
@@ -2924,10 +2978,10 @@
         <v>1</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="AE28" s="1">
-        <v>6347</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
@@ -2992,7 +3046,7 @@
         <v>109</v>
       </c>
       <c r="AE29" s="1">
-        <v>6348</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
@@ -3057,7 +3111,7 @@
         <v>109</v>
       </c>
       <c r="AE30" s="1">
-        <v>6349</v>
+        <v>6331</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
@@ -3122,7 +3176,7 @@
         <v>109</v>
       </c>
       <c r="AE31" s="1">
-        <v>6350</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
@@ -3187,7 +3241,7 @@
         <v>109</v>
       </c>
       <c r="AE32" s="1">
-        <v>6351</v>
+        <v>6506</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
@@ -3252,7 +3306,7 @@
         <v>109</v>
       </c>
       <c r="AE33" s="1">
-        <v>6352</v>
+        <v>6505</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
@@ -3317,7 +3371,7 @@
         <v>109</v>
       </c>
       <c r="AE34" s="1">
-        <v>6353</v>
+        <v>6485</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -3382,7 +3436,7 @@
         <v>109</v>
       </c>
       <c r="AE35" s="1">
-        <v>6354</v>
+        <v>6364</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -3447,7 +3501,7 @@
         <v>109</v>
       </c>
       <c r="AE36" s="1">
-        <v>6355</v>
+        <v>6424</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
@@ -3512,7 +3566,7 @@
         <v>109</v>
       </c>
       <c r="AE37" s="1">
-        <v>6356</v>
+        <v>6469</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
@@ -3574,10 +3628,10 @@
         <v>1</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="AE38" s="1">
-        <v>6357</v>
+        <v>9373</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
@@ -3639,10 +3693,10 @@
         <v>1</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="AE39" s="1">
-        <v>6358</v>
+        <v>9356</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
@@ -3704,10 +3758,10 @@
         <v>1</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="AE40" s="1">
-        <v>6359</v>
+        <v>9339</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
@@ -3769,10 +3823,10 @@
         <v>1</v>
       </c>
       <c r="AD41" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE41" s="1">
-        <v>6360</v>
+        <v>7749</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
@@ -3834,10 +3888,10 @@
         <v>1</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE42" s="1">
-        <v>6361</v>
+        <v>7737</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
@@ -3899,10 +3953,10 @@
         <v>1</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE43" s="1">
-        <v>6362</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
@@ -3964,10 +4018,10 @@
         <v>1</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE44" s="1">
-        <v>6363</v>
+        <v>7726</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
@@ -4029,10 +4083,10 @@
         <v>1</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE45" s="1">
-        <v>6364</v>
+        <v>7876</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.3">
@@ -4094,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE46" s="1">
-        <v>6365</v>
+        <v>7834</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
@@ -4159,10 +4213,10 @@
         <v>1</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE47" s="1">
-        <v>6366</v>
+        <v>7825</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.3">
@@ -4224,10 +4278,10 @@
         <v>1</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE48" s="1">
-        <v>6367</v>
+        <v>7819</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.3">
@@ -4289,10 +4343,10 @@
         <v>1</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE49" s="1">
-        <v>6368</v>
+        <v>7759</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.3">
@@ -4354,10 +4408,10 @@
         <v>1</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE50" s="1">
-        <v>6369</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.3">
@@ -4419,10 +4473,10 @@
         <v>1</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE51" s="1">
-        <v>6370</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.3">
@@ -4484,10 +4538,10 @@
         <v>1</v>
       </c>
       <c r="AD52" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE52" s="1">
-        <v>6371</v>
+        <v>7844</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.3">
@@ -4549,10 +4603,10 @@
         <v>1</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE53" s="1">
-        <v>6372</v>
+        <v>7714</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.3">
@@ -4614,10 +4668,10 @@
         <v>1</v>
       </c>
       <c r="AD54" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE54" s="1">
-        <v>6373</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.3">
@@ -4679,10 +4733,10 @@
         <v>1</v>
       </c>
       <c r="AD55" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE55" s="1">
-        <v>6374</v>
+        <v>7784</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.3">
@@ -4744,10 +4798,10 @@
         <v>1</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE56" s="1">
-        <v>6375</v>
+        <v>7746</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.3">
@@ -4809,10 +4863,10 @@
         <v>1</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE57" s="1">
-        <v>6376</v>
+        <v>7758</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.3">
@@ -4874,10 +4928,10 @@
         <v>1</v>
       </c>
       <c r="AD58" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE58" s="1">
-        <v>6377</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.3">
@@ -4939,10 +4993,10 @@
         <v>1</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE59" s="1">
-        <v>6378</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.3">
@@ -5004,10 +5058,10 @@
         <v>1</v>
       </c>
       <c r="AD60" s="1" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="AE60" s="1">
-        <v>6379</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.3">
@@ -5069,10 +5123,10 @@
         <v>1</v>
       </c>
       <c r="AD61" s="1" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="AE61" s="1">
-        <v>6380</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.3">
@@ -5134,10 +5188,10 @@
         <v>1</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="AE62" s="1">
-        <v>6381</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.3">
@@ -5199,10 +5253,10 @@
         <v>1</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="AE63" s="1">
-        <v>6382</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.3">
@@ -5264,10 +5318,10 @@
         <v>1</v>
       </c>
       <c r="AD64" s="1" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="AE64" s="1">
-        <v>6383</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.3">
@@ -5329,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="AD65" s="1" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="AE65" s="1">
-        <v>6384</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.3">
@@ -5394,10 +5448,10 @@
         <v>1</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="AE66" s="1">
-        <v>6385</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.3">
@@ -5459,10 +5513,10 @@
         <v>1</v>
       </c>
       <c r="AD67" s="1" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="AE67" s="1">
-        <v>6386</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.3">
@@ -5524,10 +5578,10 @@
         <v>1</v>
       </c>
       <c r="AD68" s="1" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="AE68" s="1">
-        <v>6387</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.3">
@@ -5589,10 +5643,10 @@
         <v>1</v>
       </c>
       <c r="AD69" s="1" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="AE69" s="1">
-        <v>6388</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.3">
@@ -5654,10 +5708,10 @@
         <v>1</v>
       </c>
       <c r="AD70" s="1" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="AE70" s="1">
-        <v>6389</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.3">
@@ -5719,10 +5773,10 @@
         <v>1</v>
       </c>
       <c r="AD71" s="1" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="AE71" s="1">
-        <v>6390</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.3">
@@ -5784,10 +5838,10 @@
         <v>1</v>
       </c>
       <c r="AD72" s="1" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="AE72" s="1">
-        <v>6391</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.3">
@@ -5849,10 +5903,10 @@
         <v>1</v>
       </c>
       <c r="AD73" s="1" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="AE73" s="1">
-        <v>6392</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.3">
@@ -5914,10 +5968,10 @@
         <v>1</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="AE74" s="1">
-        <v>6393</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.3">
@@ -5979,10 +6033,10 @@
         <v>1</v>
       </c>
       <c r="AD75" s="1" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="AE75" s="1">
-        <v>6394</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.3">
@@ -6044,10 +6098,10 @@
         <v>1</v>
       </c>
       <c r="AD76" s="1" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="AE76" s="1">
-        <v>6395</v>
+        <v>6092</v>
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.3">
@@ -6109,10 +6163,10 @@
         <v>1</v>
       </c>
       <c r="AD77" s="1" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="AE77" s="1">
-        <v>6396</v>
+        <v>6031</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.3">
@@ -6174,10 +6228,10 @@
         <v>1</v>
       </c>
       <c r="AD78" s="1" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="AE78" s="1">
-        <v>6397</v>
+        <v>6027</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.3">
@@ -6239,10 +6293,10 @@
         <v>1</v>
       </c>
       <c r="AD79" s="1" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="AE79" s="1">
-        <v>6398</v>
+        <v>5954</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.3">
@@ -6304,10 +6358,10 @@
         <v>1</v>
       </c>
       <c r="AD80" s="1" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="AE80" s="1">
-        <v>6399</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.3">
@@ -6369,10 +6423,10 @@
         <v>1</v>
       </c>
       <c r="AD81" s="1" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="AE81" s="1">
-        <v>6400</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.3">
@@ -6434,10 +6488,10 @@
         <v>1</v>
       </c>
       <c r="AD82" s="1" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="AE82" s="1">
-        <v>6401</v>
+        <v>5975</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.3">
@@ -6499,10 +6553,10 @@
         <v>1</v>
       </c>
       <c r="AD83" s="1" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="AE83" s="1">
-        <v>6402</v>
+        <v>5977</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.3">
@@ -6564,10 +6618,10 @@
         <v>1</v>
       </c>
       <c r="AD84" s="1" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="AE84" s="1">
-        <v>6403</v>
+        <v>5974</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.3">
@@ -6629,10 +6683,10 @@
         <v>1</v>
       </c>
       <c r="AD85" s="1" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="AE85" s="1">
-        <v>6404</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.3">
@@ -6694,10 +6748,10 @@
         <v>1</v>
       </c>
       <c r="AD86" s="1" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="AE86" s="1">
-        <v>6405</v>
+        <v>5986</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.3">
@@ -6759,10 +6813,10 @@
         <v>1</v>
       </c>
       <c r="AD87" s="1" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="AE87" s="1">
-        <v>6406</v>
+        <v>5987</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.3">
@@ -6824,10 +6878,10 @@
         <v>1</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="AE88" s="1">
-        <v>6407</v>
+        <v>710</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.3">
@@ -6889,10 +6943,10 @@
         <v>1</v>
       </c>
       <c r="AD89" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="AE89" s="1">
-        <v>6408</v>
+        <v>713</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.3">
@@ -6954,10 +7008,10 @@
         <v>1</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="AE90" s="1">
-        <v>6409</v>
+        <v>812</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.3">
@@ -7019,10 +7073,10 @@
         <v>1</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="AE91" s="1">
-        <v>6410</v>
+        <v>716</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.3">
@@ -7084,10 +7138,10 @@
         <v>1</v>
       </c>
       <c r="AD92" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="AE92" s="1">
-        <v>6411</v>
+        <v>932</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.3">
@@ -7149,10 +7203,10 @@
         <v>1</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="AE93" s="1">
-        <v>6412</v>
+        <v>714</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.3">
@@ -7214,10 +7268,10 @@
         <v>1</v>
       </c>
       <c r="AD94" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="AE94" s="1">
-        <v>6413</v>
+        <v>966</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.3">
@@ -7279,10 +7333,10 @@
         <v>1</v>
       </c>
       <c r="AD95" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="AE95" s="1">
-        <v>6414</v>
+        <v>995</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.3">
@@ -7344,10 +7398,10 @@
         <v>1</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="AE96" s="1">
-        <v>6415</v>
+        <v>886</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.3">
@@ -7409,10 +7463,10 @@
         <v>1</v>
       </c>
       <c r="AD97" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="AE97" s="1">
-        <v>6416</v>
+        <v>756</v>
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.3">
@@ -7474,10 +7528,10 @@
         <v>1</v>
       </c>
       <c r="AD98" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="AE98" s="1">
-        <v>6417</v>
+        <v>993</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.3">
@@ -7539,10 +7593,10 @@
         <v>1</v>
       </c>
       <c r="AD99" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="AE99" s="1">
-        <v>6418</v>
+        <v>902</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.3">
@@ -7604,10 +7658,10 @@
         <v>1</v>
       </c>
       <c r="AD100" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="AE100" s="1">
-        <v>6419</v>
+        <v>905</v>
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.3">
@@ -7669,10 +7723,10 @@
         <v>1</v>
       </c>
       <c r="AD101" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="AE101" s="1">
-        <v>6420</v>
+        <v>754</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.3">
@@ -7734,10 +7788,10 @@
         <v>1</v>
       </c>
       <c r="AD102" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="AE102" s="1">
-        <v>6421</v>
+        <v>701</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.3">

--- a/Assets/Excel/ItemDataTable.xlsx
+++ b/Assets/Excel/ItemDataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10B Outsourcing\Filab\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD3E6E7-C2D8-42D6-A8C3-F2A2A5184CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB1FF51-5C43-4D92-86F7-47B5CD4140FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="187">
   <si>
     <t>UID:key</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Dagger</t>
   </si>
   <si>
-    <t>War Axe</t>
-  </si>
-  <si>
     <t>Two Hooked Lance</t>
   </si>
   <si>
@@ -616,6 +613,9 @@
   </si>
   <si>
     <t>TrailoringItemAtlas</t>
+  </si>
+  <si>
+    <t>Axe</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45ABD2-614E-46B7-9465-64E7A16B2051}">
-  <dimension ref="A1:AF171"/>
+  <dimension ref="A1:AF157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1037,97 +1037,97 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -1135,22 +1135,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -1159,73 +1159,73 @@
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -1331,97 +1331,97 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="H4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="J4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="AD4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AE4" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="AF4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
@@ -1483,10 +1483,10 @@
         <v>1</v>
       </c>
       <c r="AD5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE5" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
@@ -1548,10 +1548,10 @@
         <v>1</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
@@ -1613,10 +1613,10 @@
         <v>1</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
@@ -1678,10 +1678,10 @@
         <v>1</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
@@ -1689,7 +1689,7 @@
         <v>200000000005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="C9" s="1">
         <v>104</v>
@@ -1743,10 +1743,10 @@
         <v>1</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
@@ -1754,7 +1754,7 @@
         <v>200000000006</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4">
         <v>105</v>
@@ -1808,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
@@ -1819,7 +1819,7 @@
         <v>200000000007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>106</v>
@@ -1873,10 +1873,10 @@
         <v>1</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
@@ -1884,7 +1884,7 @@
         <v>200000000008</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4">
         <v>107</v>
@@ -1938,10 +1938,10 @@
         <v>1</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
@@ -1949,7 +1949,7 @@
         <v>200000000009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <v>108</v>
@@ -2003,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
@@ -2014,7 +2014,7 @@
         <v>200000000010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>109</v>
@@ -2068,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
@@ -2079,7 +2079,7 @@
         <v>200000000011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <v>110</v>
@@ -2133,10 +2133,10 @@
         <v>1</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
@@ -2144,7 +2144,7 @@
         <v>200000000012</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4">
         <v>111</v>
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AE16" s="1">
         <v>945</v>
@@ -2209,7 +2209,7 @@
         <v>200000000013</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <v>112</v>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AE17" s="1">
         <v>210</v>
@@ -2274,7 +2274,7 @@
         <v>200000000014</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4">
         <v>113</v>
@@ -2328,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AE18" s="1">
         <v>217</v>
@@ -2339,7 +2339,7 @@
         <v>200000000015</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <v>114</v>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AE19" s="1">
         <v>220</v>
@@ -2404,7 +2404,7 @@
         <v>200000000016</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4">
         <v>115</v>
@@ -2458,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AE20" s="1">
         <v>256</v>
@@ -2469,7 +2469,7 @@
         <v>200000000017</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <v>116</v>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AE21" s="1">
         <v>393</v>
@@ -2534,7 +2534,7 @@
         <v>200000000018</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4">
         <v>117</v>
@@ -2588,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AE22" s="1">
         <v>320</v>
@@ -2599,7 +2599,7 @@
         <v>200000000019</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <v>118</v>
@@ -2653,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AE23" s="1">
         <v>349</v>
@@ -2664,7 +2664,7 @@
         <v>200000000020</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4">
         <v>119</v>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AE24" s="1">
         <v>359</v>
@@ -2729,7 +2729,7 @@
         <v>200000000021</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <v>120</v>
@@ -2783,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AE25" s="1">
         <v>216</v>
@@ -2794,7 +2794,7 @@
         <v>200000000022</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4">
         <v>121</v>
@@ -2848,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AE26" s="1">
         <v>587</v>
@@ -2859,7 +2859,7 @@
         <v>200000000023</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <v>122</v>
@@ -2913,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AE27" s="1">
         <v>347</v>
@@ -2924,7 +2924,7 @@
         <v>200000000024</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4">
         <v>123</v>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AE28" s="1">
         <v>414</v>
@@ -2989,7 +2989,7 @@
         <v>200000000025</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <v>124</v>
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE29" s="1">
         <v>6370</v>
@@ -3054,7 +3054,7 @@
         <v>200000000026</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4">
         <v>125</v>
@@ -3108,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE30" s="1">
         <v>6331</v>
@@ -3119,7 +3119,7 @@
         <v>200000000027</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <v>126</v>
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE31" s="1">
         <v>6328</v>
@@ -3184,7 +3184,7 @@
         <v>200000000028</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="4">
         <v>127</v>
@@ -3238,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE32" s="1">
         <v>6506</v>
@@ -3249,7 +3249,7 @@
         <v>200000000029</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <v>128</v>
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE33" s="1">
         <v>6505</v>
@@ -3314,7 +3314,7 @@
         <v>200000000030</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="4">
         <v>129</v>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE34" s="1">
         <v>6485</v>
@@ -3379,7 +3379,7 @@
         <v>200000000031</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <v>130</v>
@@ -3433,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE35" s="1">
         <v>6364</v>
@@ -3444,7 +3444,7 @@
         <v>200000000032</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="4">
         <v>131</v>
@@ -3498,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE36" s="1">
         <v>6424</v>
@@ -3509,7 +3509,7 @@
         <v>200000000033</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <v>132</v>
@@ -3563,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE37" s="1">
         <v>6469</v>
@@ -3574,7 +3574,7 @@
         <v>200000000034</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="4">
         <v>133</v>
@@ -3628,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE38" s="1">
         <v>9373</v>
@@ -3639,7 +3639,7 @@
         <v>200000000035</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1">
         <v>134</v>
@@ -3693,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE39" s="1">
         <v>9356</v>
@@ -3704,7 +3704,7 @@
         <v>200000000036</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="4">
         <v>135</v>
@@ -3758,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE40" s="1">
         <v>9339</v>
@@ -3769,7 +3769,7 @@
         <v>200000000037</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
         <v>136</v>
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="AD41" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE41" s="1">
         <v>7749</v>
@@ -3834,7 +3834,7 @@
         <v>200000000038</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="4">
         <v>137</v>
@@ -3888,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE42" s="1">
         <v>7737</v>
@@ -3899,7 +3899,7 @@
         <v>200000000039</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <v>138</v>
@@ -3953,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE43" s="1">
         <v>7720</v>
@@ -3964,7 +3964,7 @@
         <v>200000000040</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="4">
         <v>139</v>
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE44" s="1">
         <v>7726</v>
@@ -4029,7 +4029,7 @@
         <v>200000000041</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1">
         <v>140</v>
@@ -4083,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE45" s="1">
         <v>7876</v>
@@ -4094,7 +4094,7 @@
         <v>200000000042</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="4">
         <v>141</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE46" s="1">
         <v>7834</v>
@@ -4159,7 +4159,7 @@
         <v>200000000043</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1">
         <v>142</v>
@@ -4213,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE47" s="1">
         <v>7825</v>
@@ -4224,7 +4224,7 @@
         <v>200000000044</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="4">
         <v>143</v>
@@ -4278,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE48" s="1">
         <v>7819</v>
@@ -4289,7 +4289,7 @@
         <v>200000000045</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1">
         <v>144</v>
@@ -4343,7 +4343,7 @@
         <v>1</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE49" s="1">
         <v>7759</v>
@@ -4354,7 +4354,7 @@
         <v>200000000046</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="4">
         <v>145</v>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE50" s="1">
         <v>7820</v>
@@ -4419,7 +4419,7 @@
         <v>200000000047</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1">
         <v>146</v>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE51" s="1">
         <v>7879</v>
@@ -4484,7 +4484,7 @@
         <v>200000000048</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="4">
         <v>147</v>
@@ -4538,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="AD52" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE52" s="1">
         <v>7844</v>
@@ -4549,7 +4549,7 @@
         <v>200000000049</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="1">
         <v>148</v>
@@ -4603,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE53" s="1">
         <v>7714</v>
@@ -4614,7 +4614,7 @@
         <v>200000000050</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="4">
         <v>149</v>
@@ -4668,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="AD54" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE54" s="1">
         <v>7812</v>
@@ -4679,7 +4679,7 @@
         <v>200000000051</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1">
         <v>150</v>
@@ -4733,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="AD55" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE55" s="1">
         <v>7784</v>
@@ -4744,7 +4744,7 @@
         <v>200000000052</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="4">
         <v>151</v>
@@ -4798,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE56" s="1">
         <v>7746</v>
@@ -4809,7 +4809,7 @@
         <v>200000000053</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1">
         <v>152</v>
@@ -4863,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE57" s="1">
         <v>7758</v>
@@ -4874,7 +4874,7 @@
         <v>200000000054</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="4">
         <v>153</v>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="AD58" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE58" s="1">
         <v>7809</v>
@@ -4939,7 +4939,7 @@
         <v>200000000055</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="1">
         <v>154</v>
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE59" s="1">
         <v>7730</v>
@@ -5004,7 +5004,7 @@
         <v>200000000056</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="4">
         <v>155</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AD60" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE60" s="1">
         <v>7748</v>
@@ -5069,7 +5069,7 @@
         <v>200000000057</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="1">
         <v>156</v>
@@ -5123,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="AD61" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE61" s="1">
         <v>3363</v>
@@ -5134,7 +5134,7 @@
         <v>200000000058</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="4">
         <v>157</v>
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE62" s="1">
         <v>3491</v>
@@ -5199,7 +5199,7 @@
         <v>200000000059</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1">
         <v>158</v>
@@ -5253,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE63" s="1">
         <v>3417</v>
@@ -5264,7 +5264,7 @@
         <v>200000000060</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" s="4">
         <v>159</v>
@@ -5318,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="AD64" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE64" s="1">
         <v>3353</v>
@@ -5329,7 +5329,7 @@
         <v>200000000061</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="1">
         <v>160</v>
@@ -5383,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="AD65" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE65" s="1">
         <v>3542</v>
@@ -5394,7 +5394,7 @@
         <v>200000000062</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" s="4">
         <v>161</v>
@@ -5448,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE66" s="1">
         <v>3859</v>
@@ -5459,7 +5459,7 @@
         <v>200000000063</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="1">
         <v>162</v>
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="AD67" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE67" s="1">
         <v>3399</v>
@@ -5524,7 +5524,7 @@
         <v>200000000064</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="4">
         <v>163</v>
@@ -5578,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="AD68" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE68" s="1">
         <v>3481</v>
@@ -5589,7 +5589,7 @@
         <v>200000000065</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="1">
         <v>164</v>
@@ -5643,7 +5643,7 @@
         <v>1</v>
       </c>
       <c r="AD69" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE69" s="1">
         <v>3563</v>
@@ -5654,7 +5654,7 @@
         <v>200000000066</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70" s="4">
         <v>165</v>
@@ -5708,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="AD70" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE70" s="1">
         <v>3604</v>
@@ -5719,7 +5719,7 @@
         <v>200000000067</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71" s="1">
         <v>166</v>
@@ -5773,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="AD71" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE71" s="1">
         <v>3449</v>
@@ -5784,7 +5784,7 @@
         <v>200000000068</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="4">
         <v>167</v>
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="AD72" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE72" s="1">
         <v>3693</v>
@@ -5849,7 +5849,7 @@
         <v>200000000069</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73" s="1">
         <v>168</v>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="AD73" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE73" s="1">
         <v>3350</v>
@@ -5914,7 +5914,7 @@
         <v>200000000070</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74" s="4">
         <v>169</v>
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE74" s="1">
         <v>6120</v>
@@ -5979,7 +5979,7 @@
         <v>200000000071</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75" s="1">
         <v>170</v>
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="AD75" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE75" s="1">
         <v>6107</v>
@@ -6044,7 +6044,7 @@
         <v>200000000072</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76" s="4">
         <v>171</v>
@@ -6098,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="AD76" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE76" s="1">
         <v>6092</v>
@@ -6109,7 +6109,7 @@
         <v>200000000073</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" s="1">
         <v>172</v>
@@ -6163,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="AD77" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE77" s="1">
         <v>6031</v>
@@ -6174,7 +6174,7 @@
         <v>200000000074</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="4">
         <v>173</v>
@@ -6228,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="AD78" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE78" s="1">
         <v>6027</v>
@@ -6239,7 +6239,7 @@
         <v>200000000075</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" s="1">
         <v>174</v>
@@ -6293,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="AD79" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE79" s="1">
         <v>5954</v>
@@ -6304,7 +6304,7 @@
         <v>200000000076</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80" s="4">
         <v>175</v>
@@ -6358,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="AD80" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE80" s="1">
         <v>5952</v>
@@ -6369,7 +6369,7 @@
         <v>200000000077</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81" s="1">
         <v>176</v>
@@ -6423,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="AD81" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE81" s="1">
         <v>5980</v>
@@ -6434,7 +6434,7 @@
         <v>200000000078</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C82" s="4">
         <v>177</v>
@@ -6488,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="AD82" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE82" s="1">
         <v>5975</v>
@@ -6499,7 +6499,7 @@
         <v>200000000079</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83" s="1">
         <v>178</v>
@@ -6553,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="AD83" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE83" s="1">
         <v>5977</v>
@@ -6564,7 +6564,7 @@
         <v>200000000080</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C84" s="4">
         <v>179</v>
@@ -6618,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="AD84" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE84" s="1">
         <v>5974</v>
@@ -6629,7 +6629,7 @@
         <v>200000000081</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85" s="1">
         <v>180</v>
@@ -6683,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="AD85" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE85" s="1">
         <v>5900</v>
@@ -6694,7 +6694,7 @@
         <v>200000000082</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86" s="4">
         <v>181</v>
@@ -6748,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="AD86" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE86" s="1">
         <v>5986</v>
@@ -6759,7 +6759,7 @@
         <v>200000000083</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" s="1">
         <v>182</v>
@@ -6813,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="AD87" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE87" s="1">
         <v>5987</v>
@@ -6824,7 +6824,7 @@
         <v>200000000084</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" s="4">
         <v>183</v>
@@ -6878,7 +6878,7 @@
         <v>1</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE88" s="1">
         <v>710</v>
@@ -6889,7 +6889,7 @@
         <v>200000000085</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89" s="1">
         <v>184</v>
@@ -6943,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="AD89" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE89" s="1">
         <v>713</v>
@@ -6954,7 +6954,7 @@
         <v>200000000086</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90" s="4">
         <v>185</v>
@@ -7008,7 +7008,7 @@
         <v>1</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE90" s="1">
         <v>812</v>
@@ -7019,7 +7019,7 @@
         <v>200000000087</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" s="1">
         <v>186</v>
@@ -7073,7 +7073,7 @@
         <v>1</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE91" s="1">
         <v>716</v>
@@ -7084,7 +7084,7 @@
         <v>200000000088</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" s="4">
         <v>187</v>
@@ -7138,7 +7138,7 @@
         <v>1</v>
       </c>
       <c r="AD92" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE92" s="1">
         <v>932</v>
@@ -7149,7 +7149,7 @@
         <v>200000000089</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>188</v>
@@ -7203,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE93" s="1">
         <v>714</v>
@@ -7214,7 +7214,7 @@
         <v>200000000090</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="4">
         <v>189</v>
@@ -7268,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="AD94" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE94" s="1">
         <v>966</v>
@@ -7279,7 +7279,7 @@
         <v>200000000091</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="1">
         <v>190</v>
@@ -7333,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="AD95" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE95" s="1">
         <v>995</v>
@@ -7344,7 +7344,7 @@
         <v>200000000092</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C96" s="4">
         <v>191</v>
@@ -7398,7 +7398,7 @@
         <v>1</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE96" s="1">
         <v>886</v>
@@ -7409,7 +7409,7 @@
         <v>200000000093</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>192</v>
@@ -7463,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="AD97" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE97" s="1">
         <v>756</v>
@@ -7474,7 +7474,7 @@
         <v>200000000094</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98" s="4">
         <v>193</v>
@@ -7528,7 +7528,7 @@
         <v>1</v>
       </c>
       <c r="AD98" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE98" s="1">
         <v>993</v>
@@ -7539,7 +7539,7 @@
         <v>200000000095</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99" s="1">
         <v>194</v>
@@ -7593,7 +7593,7 @@
         <v>1</v>
       </c>
       <c r="AD99" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE99" s="1">
         <v>902</v>
@@ -7604,7 +7604,7 @@
         <v>200000000096</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" s="4">
         <v>195</v>
@@ -7658,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="AD100" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE100" s="1">
         <v>905</v>
@@ -7669,7 +7669,7 @@
         <v>200000000097</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C101" s="1">
         <v>196</v>
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="AD101" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE101" s="1">
         <v>754</v>
@@ -7734,7 +7734,7 @@
         <v>200000000098</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102" s="4">
         <v>197</v>
@@ -7788,141 +7788,17 @@
         <v>1</v>
       </c>
       <c r="AD102" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE102" s="1">
         <v>701</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
-        <v>200000000099</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C103" s="1">
-        <v>198</v>
-      </c>
-      <c r="D103" s="6">
-        <v>70</v>
-      </c>
-      <c r="E103" s="6">
-        <v>95</v>
-      </c>
-      <c r="F103" s="6">
-        <v>90</v>
-      </c>
-      <c r="G103" s="6">
-        <v>150</v>
-      </c>
-      <c r="H103" s="1">
-        <v>1</v>
-      </c>
-      <c r="I103" s="1">
-        <v>100</v>
-      </c>
-      <c r="J103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="V103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="X103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD103" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE103" s="1">
-        <v>6422</v>
-      </c>
+      <c r="A103" s="1"/>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
-        <v>200000000100</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C104" s="4">
-        <v>199</v>
-      </c>
-      <c r="D104" s="6">
-        <v>70</v>
-      </c>
-      <c r="E104" s="6">
-        <v>95</v>
-      </c>
-      <c r="F104" s="6">
-        <v>90</v>
-      </c>
-      <c r="G104" s="6">
-        <v>150</v>
-      </c>
-      <c r="H104" s="1">
-        <v>1</v>
-      </c>
-      <c r="I104" s="1">
-        <v>100</v>
-      </c>
-      <c r="K104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="S104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="W104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD104" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE104" s="1">
-        <v>6423</v>
-      </c>
+      <c r="A104" s="1"/>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
@@ -8082,51 +7958,10 @@
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="1"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="1"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="1"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="1"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="1"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="1"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="1"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="1"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="1"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>